--- a/Planejamento/Planejamento Excel.xlsx
+++ b/Planejamento/Planejamento Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Documents\Compiladores-TP\Planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Documents\TP_Compilador\Planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3F522-A4AE-45BC-8E0F-6CCBBF0A88E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E182D-AAC7-4414-9FA8-DE3029EDC039}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Criar Repositorio no Git</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Duracao do Plano</t>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>Preparo da Modelagem</t>
+  </si>
+  <si>
+    <t>Execucao do Trabalho</t>
+  </si>
+  <si>
+    <t>Realizar a Documentacao</t>
   </si>
 </sst>
 </file>
@@ -982,8 +985,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -999,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1009,21 +1012,21 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="14">
         <v>3</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -1031,21 +1034,21 @@
       <c r="O2" s="37"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
       <c r="T2" s="37"/>
       <c r="U2" s="17"/>
       <c r="V2" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="28"/>
       <c r="Y2" s="39"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB2" s="41"/>
       <c r="AC2" s="41"/>
@@ -1055,7 +1058,7 @@
       <c r="AG2" s="42"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ2" s="28"/>
       <c r="AK2" s="28"/>
@@ -1067,25 +1070,25 @@
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="6" spans="2:67" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="22">
         <v>2</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="22">
         <v>3</v>
@@ -1356,22 +1359,44 @@
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23" t="s">
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="22">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>20</v>
+      </c>
+      <c r="E8" s="22">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22">
+        <v>22</v>
+      </c>
+      <c r="G8" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22">
+        <v>24</v>
+      </c>
+      <c r="D9" s="22">
+        <v>3</v>
+      </c>
+      <c r="E9" s="22">
+        <v>24</v>
+      </c>
+      <c r="F9" s="22">
+        <v>3</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>

--- a/Planejamento/Planejamento Excel.xlsx
+++ b/Planejamento/Planejamento Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Documents\TP_Compilador\Planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E182D-AAC7-4414-9FA8-DE3029EDC039}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A984CD32-7B40-44A3-B885-7460B6C173D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Criar Repositorio no Git</t>
   </si>
@@ -117,9 +117,6 @@
     <t>% de Concluido</t>
   </si>
   <si>
-    <t>Planejamento TP Compiladores - FASE 1</t>
-  </si>
-  <si>
     <t>Periodo em Dias</t>
   </si>
   <si>
@@ -136,6 +133,21 @@
   </si>
   <si>
     <t>Realizar a Documentacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reuniao Inicial - Sintatico</t>
+  </si>
+  <si>
+    <t>Reuniao Desenvolvimento On Line</t>
+  </si>
+  <si>
+    <t>Reuniao Final</t>
+  </si>
+  <si>
+    <t>Relatorio Sintatico</t>
+  </si>
+  <si>
+    <t>Planejamento TP Compiladores - FASE 1 e 2</t>
   </si>
 </sst>
 </file>
@@ -985,14 +997,14 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="24" width="2.75" style="1"/>
@@ -1002,7 +1014,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1012,7 +1024,7 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1070,7 +1082,7 @@
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>8</v>
@@ -1088,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -1340,7 +1352,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="22">
         <v>3</v>
@@ -1360,7 +1372,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="22">
         <v>4</v>
@@ -1380,7 +1392,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="22">
         <v>24</v>
@@ -1399,36 +1411,84 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="23"/>
+      <c r="B10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="22">
+        <v>27</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>27</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="25">
+        <v>32</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>32</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="25">
+        <v>45</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>45</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="25">
+        <v>49</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>49</v>
+      </c>
+      <c r="F13" s="25">
+        <v>2</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
